--- a/Zebrafish/Wang2023/Wang_Data.xlsx
+++ b/Zebrafish/Wang2023/Wang_Data.xlsx
@@ -1,33 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elenistrompoula/Documents/GitHub/PFAS_biokinetics_models/Zebrafish/Wang2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptsir\Documents\GitHub\PFAS_biokinetics_models\Zebrafish\Wang2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BDEF92-A1EC-3945-8840-C8E35848D9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="1200" windowWidth="27640" windowHeight="15680" activeTab="9" xr2:uid="{88ACE5F6-9774-A244-BDD4-CC2A47F4E78B}"/>
+    <workbookView xWindow="576" yWindow="1200" windowWidth="27636" windowHeight="15684" activeTab="12"/>
   </bookViews>
   <sheets>
-    <sheet name="PFHpA" sheetId="1" r:id="rId1"/>
-    <sheet name="PFNA" sheetId="2" r:id="rId2"/>
-    <sheet name="PFDoA" sheetId="3" r:id="rId3"/>
-    <sheet name="PFUnA" sheetId="4" r:id="rId4"/>
+    <sheet name="PFBA" sheetId="6" r:id="rId1"/>
+    <sheet name="F-53B" sheetId="13" r:id="rId2"/>
+    <sheet name="GenX" sheetId="12" r:id="rId3"/>
+    <sheet name="PFBS" sheetId="7" r:id="rId4"/>
     <sheet name="PFDA" sheetId="5" r:id="rId5"/>
-    <sheet name="PFBA" sheetId="6" r:id="rId6"/>
-    <sheet name="PFBS" sheetId="7" r:id="rId7"/>
-    <sheet name="PFPeA" sheetId="8" r:id="rId8"/>
-    <sheet name="PFHxA" sheetId="9" r:id="rId9"/>
+    <sheet name="PFDoA" sheetId="3" r:id="rId6"/>
+    <sheet name="PFHpA" sheetId="1" r:id="rId7"/>
+    <sheet name="PFHxA" sheetId="9" r:id="rId8"/>
+    <sheet name="PFNA" sheetId="2" r:id="rId9"/>
     <sheet name="PFOA" sheetId="10" r:id="rId10"/>
     <sheet name="PFOS" sheetId="11" r:id="rId11"/>
-    <sheet name="GenX" sheetId="12" r:id="rId12"/>
-    <sheet name="F-53B" sheetId="13" r:id="rId13"/>
+    <sheet name="PFPeA" sheetId="8" r:id="rId12"/>
+    <sheet name="PFUnA" sheetId="4" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,9 +68,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -104,7 +103,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,198 +417,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C1A081-7475-AD4B-A38D-DEA53BFBCD56}">
-  <dimension ref="B1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.96263858093126398</v>
+      </c>
       <c r="B2">
-        <v>1.0632485209946601</v>
+        <v>15.609756097560901</v>
       </c>
       <c r="C2">
-        <v>69.387996408702406</v>
+        <v>1.0130820399113001</v>
       </c>
       <c r="D2">
-        <v>0.97290494284385898</v>
+        <v>17.0731707317073</v>
       </c>
       <c r="E2">
-        <v>74.918233851185605</v>
+        <v>1.01940133037693</v>
       </c>
       <c r="F2">
-        <v>0.92879932021868505</v>
-      </c>
-      <c r="G2">
-        <v>83.5187100187581</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+        <v>18.9268292682926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1.9919068736141901</v>
+      </c>
       <c r="B3">
-        <v>2.0266140798101699</v>
+        <v>24.195121951219502</v>
       </c>
       <c r="C3">
-        <v>92.094135282894797</v>
+        <v>1.9985587583148501</v>
       </c>
       <c r="D3">
-        <v>2.0294197809949801</v>
+        <v>26.146341463414601</v>
       </c>
       <c r="E3">
-        <v>107.45033908902801</v>
+        <v>1.9647450110864699</v>
       </c>
       <c r="F3">
-        <v>2.0757699645679999</v>
-      </c>
-      <c r="G3">
-        <v>111.134825966363</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+        <v>29.560975609756099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3.0470066518846899</v>
+      </c>
       <c r="B4">
-        <v>3.0840267423404302</v>
+        <v>27.024390243902399</v>
       </c>
       <c r="C4">
-        <v>129.540225738701</v>
+        <v>3.05399113082039</v>
       </c>
       <c r="D4">
-        <v>2.94733298061661</v>
+        <v>29.0731707317073</v>
       </c>
       <c r="E4">
-        <v>131.38597630384899</v>
+        <v>3.0633037694013199</v>
       </c>
       <c r="F4">
-        <v>2.9950299007583401</v>
-      </c>
-      <c r="G4">
-        <v>142.44144100812801</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+        <v>31.804878048780399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5.0035476718403498</v>
+      </c>
       <c r="B5">
-        <v>5.0085132990236101</v>
+        <v>27.609756097560901</v>
       </c>
       <c r="C5">
-        <v>162.66754044217799</v>
+        <v>5.0546563192904603</v>
       </c>
       <c r="D5">
-        <v>5.0105334038766802</v>
+        <v>29.268292682926798</v>
       </c>
       <c r="E5">
-        <v>173.72400718259499</v>
+        <v>4.9740576496674</v>
       </c>
       <c r="F5">
-        <v>5.0095233514501496</v>
-      </c>
-      <c r="G5">
-        <v>168.19577381238599</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+        <v>32.292682926829201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>8.9885809312638507</v>
+      </c>
       <c r="B6">
-        <v>9.0312154297532601</v>
+        <v>23.219512195121901</v>
       </c>
       <c r="C6">
-        <v>179.77830952495401</v>
+        <v>9.0350332594234999</v>
       </c>
       <c r="D6">
-        <v>8.9413207637920191</v>
+        <v>23.512195121951201</v>
       </c>
       <c r="E6">
-        <v>187.765539576419</v>
+        <v>9.0423503325942303</v>
       </c>
       <c r="F6">
-        <v>9.1229057444727708</v>
-      </c>
-      <c r="G6">
-        <v>181.619049909415</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+        <v>25.658536585365798</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>14.010421286031001</v>
+      </c>
       <c r="B7">
-        <v>14.092475911051199</v>
+        <v>16.292682926829201</v>
       </c>
       <c r="C7">
-        <v>131.141479486316</v>
+        <v>14.016407982261599</v>
       </c>
       <c r="D7">
-        <v>13.999551087810399</v>
+        <v>18.048780487804802</v>
       </c>
       <c r="E7">
-        <v>122.544009427156</v>
+        <v>14.0327050997782</v>
       </c>
       <c r="F7">
-        <v>14.1369182178186</v>
-      </c>
-      <c r="G7">
-        <v>124.38374777547899</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+        <v>22.829268292682901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>21.056541019955599</v>
+      </c>
       <c r="B8">
-        <v>20.9861959501707</v>
+        <v>16.487804878048699</v>
       </c>
       <c r="C8">
-        <v>111.94847930995699</v>
+        <v>21.060864745010999</v>
       </c>
       <c r="D8">
-        <v>21.0326583617911</v>
+        <v>17.756097560975601</v>
       </c>
       <c r="E8">
-        <v>116.247214339537</v>
+        <v>21.030044345897998</v>
       </c>
       <c r="F8">
-        <v>21.0796819136485</v>
-      </c>
-      <c r="G8">
-        <v>123.617190130344</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+        <v>22.048780487804802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>28.010753880266002</v>
+      </c>
       <c r="B9">
-        <v>28.065316723582299</v>
+        <v>16.390243902439</v>
       </c>
       <c r="C9">
-        <v>107.493426642938</v>
+        <v>28.0144124168514</v>
       </c>
       <c r="D9">
-        <v>28.0210988729097</v>
+        <v>17.4634146341463</v>
       </c>
       <c r="E9">
-        <v>115.47965465826501</v>
+        <v>27.941130820399099</v>
       </c>
       <c r="F9">
-        <v>28.0224456094784</v>
-      </c>
-      <c r="G9">
-        <v>122.850632485209</v>
+        <v>22.634146341463399</v>
       </c>
     </row>
   </sheetData>
@@ -618,191 +617,191 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1E8799-1CA3-864F-907F-797E956C115B}">
-  <dimension ref="B1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.91086319585305298</v>
+      </c>
       <c r="B2">
-        <v>0.91086319585305298</v>
+        <v>88.669950738916199</v>
       </c>
       <c r="C2">
-        <v>88.669950738916199</v>
+        <v>1.04800540906017</v>
       </c>
       <c r="D2">
-        <v>1.04800540906017</v>
+        <v>91.133004926108399</v>
       </c>
       <c r="E2">
-        <v>91.133004926108399</v>
+        <v>0.910525129592066</v>
       </c>
       <c r="F2">
-        <v>0.910525129592066</v>
-      </c>
-      <c r="G2">
         <v>96.059113300492498</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2.9130042821726301</v>
+      </c>
       <c r="B3">
-        <v>2.9130042821726301</v>
+        <v>327.586206896551</v>
       </c>
       <c r="C3">
-        <v>327.586206896551</v>
+        <v>1.91097588460671</v>
       </c>
       <c r="D3">
-        <v>1.91097588460671</v>
+        <v>229.06403940886599</v>
       </c>
       <c r="E3">
-        <v>229.06403940886599</v>
+        <v>1.8639846743295001</v>
       </c>
       <c r="F3">
-        <v>1.8639846743295001</v>
-      </c>
-      <c r="G3">
         <v>256.15763546798001</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5.0123957629028597</v>
+      </c>
       <c r="B4">
-        <v>5.0123957629028597</v>
+        <v>440.88669950738898</v>
       </c>
       <c r="C4">
-        <v>440.88669950738898</v>
+        <v>2.9570655848546301</v>
       </c>
       <c r="D4">
-        <v>2.9570655848546301</v>
+        <v>364.53201970443303</v>
       </c>
       <c r="E4">
-        <v>364.53201970443303</v>
+        <v>2.9513184584178398</v>
       </c>
       <c r="F4">
-        <v>2.9513184584178398</v>
-      </c>
-      <c r="G4">
         <v>490.14778325123098</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>9.0326797385620896</v>
+      </c>
       <c r="B5">
-        <v>9.0326797385620896</v>
+        <v>568.96551724137896</v>
       </c>
       <c r="C5">
-        <v>568.96551724137896</v>
+        <v>4.9631507775524</v>
       </c>
       <c r="D5">
-        <v>4.9631507775524</v>
+        <v>517.24137931034397</v>
       </c>
       <c r="E5">
-        <v>517.24137931034397</v>
+        <v>5.0040567951318398</v>
       </c>
       <c r="F5">
-        <v>5.0040567951318398</v>
-      </c>
-      <c r="G5">
         <v>623.15270935960496</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>13.964728420103601</v>
+      </c>
       <c r="B6">
-        <v>13.964728420103601</v>
+        <v>768.47290640393999</v>
       </c>
       <c r="C6">
-        <v>768.47290640393999</v>
+        <v>8.9379084967320193</v>
       </c>
       <c r="D6">
-        <v>8.9379084967320193</v>
+        <v>640.39408866994995</v>
       </c>
       <c r="E6">
-        <v>640.39408866994995</v>
+        <v>8.9793779580797803</v>
       </c>
       <c r="F6">
-        <v>8.9793779580797803</v>
-      </c>
-      <c r="G6">
         <v>733.99014778325102</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>20.918300653594699</v>
+      </c>
       <c r="B7">
-        <v>20.918300653594699</v>
+        <v>783.25123152709295</v>
       </c>
       <c r="C7">
-        <v>783.25123152709295</v>
+        <v>13.920554428668</v>
       </c>
       <c r="D7">
-        <v>13.920554428668</v>
+        <v>733.99014778325102</v>
       </c>
       <c r="E7">
-        <v>733.99014778325102</v>
+        <v>13.914018480955599</v>
       </c>
       <c r="F7">
-        <v>13.914018480955599</v>
-      </c>
-      <c r="G7">
         <v>876.84729064039402</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>28.009578544061299</v>
+      </c>
       <c r="B8">
-        <v>28.009578544061299</v>
+        <v>788.17733990147701</v>
       </c>
       <c r="C8">
-        <v>788.17733990147701</v>
+        <v>20.963376155059699</v>
       </c>
       <c r="D8">
-        <v>20.963376155059699</v>
+        <v>798.02955665024604</v>
       </c>
       <c r="E8">
-        <v>798.02955665024604</v>
+        <v>21.050259184133399</v>
       </c>
       <c r="F8">
-        <v>21.050259184133399</v>
-      </c>
-      <c r="G8">
         <v>899.01477832512296</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>28.008564345278302</v>
+      </c>
       <c r="D9">
-        <v>28.008564345278302</v>
+        <v>810.34482758620697</v>
       </c>
       <c r="E9">
-        <v>810.34482758620697</v>
+        <v>28.0043948613928</v>
       </c>
       <c r="F9">
-        <v>28.0043948613928</v>
-      </c>
-      <c r="G9">
         <v>901.47783251231499</v>
       </c>
     </row>
@@ -812,197 +811,197 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360FB229-61AD-C040-B361-91DE3292E2F0}">
-  <dimension ref="B1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1.0701557364865899</v>
+      </c>
       <c r="B2">
-        <v>1.0701557364865899</v>
+        <v>261.84538653366502</v>
       </c>
       <c r="C2">
-        <v>261.84538653366502</v>
+        <v>0.978018529834353</v>
       </c>
       <c r="D2">
-        <v>0.978018529834353</v>
+        <v>299.25187032418899</v>
       </c>
       <c r="E2">
-        <v>299.25187032418899</v>
+        <v>1.0258790110815601</v>
       </c>
       <c r="F2">
-        <v>1.0258790110815601</v>
-      </c>
-      <c r="G2">
         <v>396.50872817955099</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2.0497927367012898</v>
+      </c>
       <c r="B3">
-        <v>2.0497927367012898</v>
+        <v>658.35411471321595</v>
       </c>
       <c r="C3">
-        <v>658.35411471321595</v>
+        <v>2.0507175769186299</v>
       </c>
       <c r="D3">
-        <v>2.0507175769186299</v>
+        <v>718.20448877805404</v>
       </c>
       <c r="E3">
-        <v>718.20448877805404</v>
+        <v>2.0075969017852699</v>
       </c>
       <c r="F3">
-        <v>2.0075969017852699</v>
-      </c>
-      <c r="G3">
         <v>927.68079800498697</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3.0318574424864901</v>
+      </c>
       <c r="B4">
-        <v>3.0318574424864901</v>
+        <v>1211.9700748129601</v>
       </c>
       <c r="C4">
-        <v>1211.9700748129601</v>
+        <v>2.9871182969727998</v>
       </c>
       <c r="D4">
-        <v>2.9871182969727998</v>
+        <v>1316.7082294264301</v>
       </c>
       <c r="E4">
-        <v>1316.7082294264301</v>
+        <v>3.03833132400786</v>
       </c>
       <c r="F4">
-        <v>3.03833132400786</v>
-      </c>
-      <c r="G4">
         <v>1630.92269326683</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5.0304371521527296</v>
+      </c>
       <c r="B5">
-        <v>5.0304371521527296</v>
+        <v>1548.62842892768</v>
       </c>
       <c r="C5">
-        <v>1548.62842892768</v>
+        <v>5.0317088074515599</v>
       </c>
       <c r="D5">
-        <v>5.0317088074515599</v>
+        <v>1630.92269326683</v>
       </c>
       <c r="E5">
-        <v>1630.92269326683</v>
+        <v>5.1292794503806602</v>
       </c>
       <c r="F5">
-        <v>5.1292794503806602</v>
-      </c>
-      <c r="G5">
         <v>1945.13715710723</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>8.9723373684992698</v>
+      </c>
       <c r="B6">
-        <v>8.9723373684992698</v>
+        <v>1645.8852867830401</v>
       </c>
       <c r="C6">
-        <v>1645.8852867830401</v>
+        <v>9.1161500222952494</v>
       </c>
       <c r="D6">
-        <v>9.1161500222952494</v>
+        <v>1952.6184538653299</v>
       </c>
       <c r="E6">
+        <v>8.9848227114333294</v>
+      </c>
+      <c r="F6">
+        <v>2453.8653366583499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>13.9836996911694</v>
+      </c>
+      <c r="B7">
         <v>1952.6184538653299</v>
       </c>
-      <c r="F6">
-        <v>8.9848227114333294</v>
-      </c>
-      <c r="G6">
-        <v>2453.8653366583499</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>13.9836996911694</v>
-      </c>
       <c r="C7">
-        <v>1952.6184538653299</v>
+        <v>14.0334098528513</v>
       </c>
       <c r="D7">
-        <v>14.0334098528513</v>
+        <v>2169.5760598503698</v>
       </c>
       <c r="E7">
-        <v>2169.5760598503698</v>
+        <v>14.0877442156198</v>
       </c>
       <c r="F7">
-        <v>14.0877442156198</v>
-      </c>
-      <c r="G7">
         <v>2685.7855361595998</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>20.985318161549699</v>
+      </c>
       <c r="B8">
-        <v>20.985318161549699</v>
+        <v>2057.3566084787999</v>
       </c>
       <c r="C8">
-        <v>2057.3566084787999</v>
+        <v>21.1728295156149</v>
       </c>
       <c r="D8">
-        <v>21.1728295156149</v>
+        <v>2192.0199501246798</v>
       </c>
       <c r="E8">
-        <v>2192.0199501246798</v>
+        <v>21.088437845782799</v>
       </c>
       <c r="F8">
-        <v>21.088437845782799</v>
-      </c>
-      <c r="G8">
         <v>2730.6733167082202</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>28.031560172416601</v>
+      </c>
       <c r="B9">
-        <v>28.031560172416601</v>
+        <v>2049.8753117206902</v>
       </c>
       <c r="C9">
-        <v>2049.8753117206902</v>
+        <v>27.9877458671202</v>
       </c>
       <c r="D9">
-        <v>27.9877458671202</v>
+        <v>2214.4638403990002</v>
       </c>
       <c r="E9">
-        <v>2214.4638403990002</v>
+        <v>27.9499430232366</v>
       </c>
       <c r="F9">
-        <v>27.9499430232366</v>
-      </c>
-      <c r="G9">
         <v>2768.07980049875</v>
       </c>
     </row>
@@ -1012,198 +1011,198 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6FD744-0B59-7441-9C09-5FA56707F06E}">
-  <dimension ref="B1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1.0936707192514199</v>
+      </c>
       <c r="B2">
-        <v>1.0271941729226399</v>
+        <v>22.122911930414102</v>
       </c>
       <c r="C2">
-        <v>198.58789575853299</v>
+        <v>1.0936707192514199</v>
       </c>
       <c r="D2">
-        <v>1.0264726598065601</v>
+        <v>22.122911930414102</v>
       </c>
       <c r="E2">
-        <v>213.89428114961001</v>
+        <v>1.0484662778821101</v>
       </c>
       <c r="F2">
-        <v>1.02502963357441</v>
-      </c>
-      <c r="G2">
-        <v>244.50705193176501</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+        <v>22.568696253830101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2.01067510131461</v>
+      </c>
       <c r="B3">
-        <v>1.9492879352699599</v>
+        <v>32.365572798260303</v>
       </c>
       <c r="C3">
-        <v>637.02736596175896</v>
+        <v>2.1135382689202902</v>
       </c>
       <c r="D3">
-        <v>1.9940217484667799</v>
+        <v>35.483839082731997</v>
       </c>
       <c r="E3">
-        <v>688.03147171496698</v>
+        <v>2.0821719218477099</v>
       </c>
       <c r="F3">
-        <v>1.9916167047465201</v>
-      </c>
-      <c r="G3">
-        <v>739.05275635189196</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+        <v>40.384995552041097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3.0462258245197802</v>
+      </c>
       <c r="B4">
-        <v>2.9752795863324799</v>
+        <v>35.775921715923602</v>
       </c>
       <c r="C4">
-        <v>871.34733984985598</v>
+        <v>3.0605251886264</v>
       </c>
       <c r="D4">
-        <v>3.0661902389582698</v>
+        <v>40.3798062666798</v>
       </c>
       <c r="E4">
-        <v>942.742780574118</v>
+        <v>3.1246416922012399</v>
       </c>
       <c r="F4">
-        <v>3.0608991427737</v>
-      </c>
-      <c r="G4">
-        <v>1054.98960677535</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+        <v>46.023030542650901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5.1943593291818999</v>
+      </c>
       <c r="B5">
-        <v>4.99383278074591</v>
+        <v>37.398191163388297</v>
       </c>
       <c r="C5">
-        <v>1049.1831440792901</v>
+        <v>5.1597640934400797</v>
       </c>
       <c r="D5">
-        <v>4.9459724107127503</v>
+        <v>41.259760798655698</v>
       </c>
       <c r="E5">
-        <v>1064.5067083540901</v>
+        <v>5.2690850383842296</v>
       </c>
       <c r="F5">
-        <v>5.0330349933861296</v>
-      </c>
-      <c r="G5">
-        <v>1217.5362044974299</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+        <v>46.457200751210799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>9.0893216039010198</v>
+      </c>
       <c r="B6">
-        <v>8.9972685574891305</v>
+        <v>31.4369378274192</v>
       </c>
       <c r="C6">
-        <v>1119.1527374551199</v>
+        <v>9.1396000131791304</v>
       </c>
       <c r="D6">
-        <v>8.9465221349916693</v>
+        <v>32.6247899574972</v>
       </c>
       <c r="E6">
-        <v>1195.70184329422</v>
+        <v>9.1520542980461901</v>
       </c>
       <c r="F6">
-        <v>8.9835598082836494</v>
-      </c>
-      <c r="G6">
-        <v>1409.9740598855799</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+        <v>36.634624888801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>14.112549833613301</v>
+      </c>
       <c r="B7">
-        <v>13.9838862070742</v>
+        <v>28.7370267865968</v>
       </c>
       <c r="C7">
-        <v>1331.6211712562899</v>
+        <v>14.1171625317122</v>
       </c>
       <c r="D7">
-        <v>13.9343423064369</v>
+        <v>30.222150835227801</v>
       </c>
       <c r="E7">
-        <v>1382.65963477693</v>
+        <v>14.0894863431188</v>
       </c>
       <c r="F7">
-        <v>13.8761402484066</v>
-      </c>
-      <c r="G7">
-        <v>1617.3747229905</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+        <v>36.311406543441699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>21.144608085400801</v>
+      </c>
       <c r="B8">
-        <v>20.907766573328001</v>
+        <v>27.808638924582301</v>
       </c>
       <c r="C8">
-        <v>1446.44483001494</v>
+        <v>21.101709993080899</v>
       </c>
       <c r="D8">
-        <v>20.8596656989228</v>
+        <v>28.9969852723139</v>
       </c>
       <c r="E8">
-        <v>1466.8705227534299</v>
+        <v>21.166287766465601</v>
       </c>
       <c r="F8">
-        <v>20.991702599165102</v>
-      </c>
-      <c r="G8">
-        <v>1665.8019961862799</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+        <v>34.788721953148098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>28.180356495667301</v>
+      </c>
       <c r="B9">
-        <v>27.8852794145436</v>
+        <v>28.068350301472702</v>
       </c>
       <c r="C9">
-        <v>1423.49384137018</v>
+        <v>28.136997133537601</v>
       </c>
       <c r="D9">
-        <v>27.881431344591199</v>
+        <v>29.108184244341199</v>
       </c>
       <c r="E9">
-        <v>1505.1278967892599</v>
+        <v>28.2015749069223</v>
       </c>
       <c r="F9">
-        <v>27.8734947003143</v>
-      </c>
-      <c r="G9">
-        <v>1673.4981360911099</v>
+        <v>34.899920925175401</v>
       </c>
     </row>
   </sheetData>
@@ -1212,199 +1211,202 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657F3E5F-FFE1-9A49-97E5-4A2F1C37E7DF}">
-  <dimension ref="B1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.98989898989898994</v>
+      </c>
       <c r="B2">
-        <v>1.03135704200418</v>
+        <v>222.39227289732301</v>
       </c>
       <c r="C2">
-        <v>190.121529332975</v>
+        <v>0.94276094276094302</v>
       </c>
       <c r="D2">
-        <v>1.12559452968702</v>
+        <v>237.53528551508299</v>
       </c>
       <c r="E2">
-        <v>183.75499618221201</v>
+        <v>0.94276094276094302</v>
       </c>
       <c r="F2">
-        <v>1.0780577488280001</v>
-      </c>
-      <c r="G2">
-        <v>209.14647931783099</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+        <v>288.04033602013402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1.9326599326599301</v>
+      </c>
       <c r="B3">
-        <v>2.0105191763817598</v>
+        <v>409.43101044111103</v>
       </c>
       <c r="C3">
-        <v>672.13314052442297</v>
+        <v>1.88552188552188</v>
       </c>
       <c r="D3">
-        <v>1.9605936125649901</v>
+        <v>454.87705336190197</v>
       </c>
       <c r="E3">
-        <v>824.42871828997204</v>
+        <v>2.0269360269360202</v>
       </c>
       <c r="F3">
-        <v>1.9599964168255599</v>
-      </c>
-      <c r="G3">
-        <v>856.15474194745502</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+        <v>520.55912661973298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2.9696969696969702</v>
+      </c>
       <c r="B4">
-        <v>2.9944588766748099</v>
+        <v>515.67867224432803</v>
       </c>
       <c r="C4">
-        <v>900.33656245600901</v>
+        <v>2.9225589225589199</v>
       </c>
       <c r="D4">
-        <v>2.9890841150198999</v>
+        <v>591.42774546814906</v>
       </c>
       <c r="E4">
-        <v>1185.8707753733499</v>
+        <v>2.8282828282828198</v>
       </c>
       <c r="F4">
-        <v>2.9404723818298901</v>
-      </c>
-      <c r="G4">
-        <v>1268.3691010924399</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+        <v>641.91579090568996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4.9494949494949498</v>
+      </c>
       <c r="B5">
-        <v>4.9675935997679401</v>
+        <v>652.39941502567694</v>
       </c>
       <c r="C5">
-        <v>1077.5543981333301</v>
+        <v>4.9494949494949498</v>
       </c>
       <c r="D5">
-        <v>5.0113083278945796</v>
+        <v>768.56103118729402</v>
       </c>
       <c r="E5">
-        <v>1255.2094664056001</v>
+        <v>4.9494949494949498</v>
       </c>
       <c r="F5">
-        <v>4.9597106160074</v>
-      </c>
-      <c r="G5">
-        <v>1496.3379104121</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+        <v>808.96507159133398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>9.0033670033669999</v>
+      </c>
       <c r="B6">
-        <v>9.0106087557426697</v>
+        <v>860.20133999932</v>
       </c>
       <c r="C6">
-        <v>1292.3742369757999</v>
+        <v>9.0033670033669999</v>
       </c>
       <c r="D6">
-        <v>8.9129075327711096</v>
+        <v>1062.22154201952</v>
       </c>
       <c r="E6">
-        <v>1482.7517073399599</v>
+        <v>9.0033670033669999</v>
       </c>
       <c r="F6">
-        <v>8.9544723562357795</v>
-      </c>
-      <c r="G6">
-        <v>1774.6204607791601</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1117.77709757507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>14</v>
+      </c>
       <c r="B7">
-        <v>14.0416245430386</v>
-      </c>
-      <c r="C7">
-        <v>1519.6605368789601</v>
+        <v>977.26422473897196</v>
+      </c>
+      <c r="C7" s="1">
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>13.941773415405001</v>
+        <v>1255.04200251675</v>
       </c>
       <c r="E7">
-        <v>1824.2516924100601</v>
+        <v>14.094276094275999</v>
       </c>
       <c r="F7">
-        <v>13.890175703517899</v>
-      </c>
-      <c r="G7">
-        <v>2065.3801364165602</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1416.67516920042</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>21.023569023568999</v>
+      </c>
       <c r="B8">
-        <v>20.909375546540701</v>
+        <v>1195.7028194401901</v>
       </c>
       <c r="C8">
-        <v>1670.3884758285001</v>
+        <v>20.976430976430901</v>
       </c>
       <c r="D8">
-        <v>20.904836858921001</v>
+        <v>1407.81552902765</v>
       </c>
       <c r="E8">
-        <v>1911.5062556253699</v>
+        <v>20.929292929292899</v>
       </c>
       <c r="F8">
-        <v>20.947357195568799</v>
-      </c>
-      <c r="G8">
-        <v>2152.6133712126002</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1559.32217800904</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>28.047138047137999</v>
+      </c>
       <c r="B9">
-        <v>27.9679903083662</v>
-      </c>
-      <c r="C9">
-        <v>1681.4792538465799</v>
+        <v>1191.9191919191901</v>
+      </c>
+      <c r="C9" s="1">
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>27.9634516207465</v>
+        <v>1424.2339217086601</v>
       </c>
       <c r="E9">
-        <v>1922.59703364344</v>
+        <v>28.047138047137999</v>
       </c>
       <c r="F9">
-        <v>27.864675445444</v>
-      </c>
-      <c r="G9">
-        <v>2170.0813465910701</v>
-      </c>
+        <v>1580.8080808080799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1412,198 +1414,198 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD3CD19-8AB8-EB4A-9E74-E8BA2CF28452}">
-  <dimension ref="B1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1.03135704200418</v>
+      </c>
       <c r="B2">
-        <v>1.0481194455526199</v>
+        <v>190.121529332975</v>
       </c>
       <c r="C2">
-        <v>340.69399292086399</v>
+        <v>1.12559452968702</v>
       </c>
       <c r="D2">
-        <v>1.09517786963865</v>
+        <v>183.75499618221201</v>
       </c>
       <c r="E2">
-        <v>340.68338270619802</v>
+        <v>1.0780577488280001</v>
       </c>
       <c r="F2">
-        <v>1.0500207960207399</v>
-      </c>
-      <c r="G2">
-        <v>391.19861473037298</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+        <v>209.14647931783099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2.0105191763817598</v>
+      </c>
       <c r="B3">
-        <v>1.95981699501744</v>
+        <v>672.13314052442297</v>
       </c>
       <c r="C3">
-        <v>807.66015058016603</v>
+        <v>1.9605936125649901</v>
       </c>
       <c r="D3">
-        <v>1.9605300014429801</v>
+        <v>824.42871828997204</v>
       </c>
       <c r="E3">
-        <v>826.59938375873196</v>
+        <v>1.9599964168255599</v>
       </c>
       <c r="F3">
-        <v>2.0140054833589298</v>
-      </c>
-      <c r="G3">
-        <v>997.04187215115701</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+        <v>856.15474194745502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2.9944588766748099</v>
+      </c>
       <c r="B4">
-        <v>3.0462011187410298</v>
+        <v>900.33656245600901</v>
       </c>
       <c r="C4">
-        <v>914.73843698805695</v>
+        <v>2.9890841150198999</v>
       </c>
       <c r="D4">
-        <v>3.04857780682618</v>
+        <v>1185.8707753733499</v>
       </c>
       <c r="E4">
-        <v>977.86921424994205</v>
+        <v>2.9404723818298901</v>
       </c>
       <c r="F4">
-        <v>3.0568962151242198</v>
-      </c>
-      <c r="G4">
-        <v>1198.82693466654</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1268.3691010924399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4.9675935997679401</v>
+      </c>
       <c r="B5">
-        <v>5.03049800103555</v>
+        <v>1077.5543981333301</v>
       </c>
       <c r="C5">
-        <v>1122.62437293631</v>
+        <v>5.0113083278945796</v>
       </c>
       <c r="D5">
-        <v>4.9867669402687298</v>
+        <v>1255.2094664056001</v>
       </c>
       <c r="E5">
-        <v>1211.0180713176101</v>
+        <v>4.9597106160074</v>
       </c>
       <c r="F5">
-        <v>5.0915788848239902</v>
-      </c>
-      <c r="G5">
-        <v>1495.0853485667701</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1496.3379104121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>9.0106087557426697</v>
+      </c>
       <c r="B6">
-        <v>9.0356927621359606</v>
+        <v>1292.3742369757999</v>
       </c>
       <c r="C6">
-        <v>1260.61021466586</v>
+        <v>8.9129075327711096</v>
       </c>
       <c r="D6">
-        <v>9.0387824566466595</v>
+        <v>1482.7517073399599</v>
       </c>
       <c r="E6">
-        <v>1342.68022510631</v>
+        <v>8.9544723562357795</v>
       </c>
       <c r="F6">
-        <v>9.0943969578392494</v>
-      </c>
-      <c r="G6">
-        <v>1569.9404130344301</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1774.6204607791601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>14.0416245430386</v>
+      </c>
       <c r="B7">
-        <v>14.0319664547453</v>
+        <v>1519.6605368789601</v>
       </c>
       <c r="C7">
-        <v>1474.13017460169</v>
+        <v>13.941773415405001</v>
       </c>
       <c r="D7">
-        <v>14.0830652485761</v>
+        <v>1824.2516924100601</v>
       </c>
       <c r="E7">
-        <v>1581.44188573223</v>
+        <v>13.890175703517899</v>
       </c>
       <c r="F7">
-        <v>14.090432981639999</v>
-      </c>
-      <c r="G7">
-        <v>1777.1472952440699</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+        <v>2065.3801364165602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>20.909375546540701</v>
+      </c>
       <c r="B8">
-        <v>21.052940727096701</v>
+        <v>1670.3884758285001</v>
       </c>
       <c r="C8">
-        <v>1718.7592839378301</v>
+        <v>20.904836858921001</v>
       </c>
       <c r="D8">
-        <v>21.149671932162502</v>
+        <v>1911.5062556253699</v>
       </c>
       <c r="E8">
-        <v>1788.18191849657</v>
+        <v>20.947357195568799</v>
       </c>
       <c r="F8">
-        <v>21.012537029649099</v>
-      </c>
-      <c r="G8">
-        <v>1895.5360704857701</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+        <v>2152.6133712126002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>27.9679903083662</v>
+      </c>
       <c r="B9">
-        <v>28.111704340002198</v>
+        <v>1681.4792538465799</v>
       </c>
       <c r="C9">
-        <v>1717.1677517379501</v>
+        <v>27.9634516207465</v>
       </c>
       <c r="D9">
-        <v>28.115269372129902</v>
+        <v>1922.59703364344</v>
       </c>
       <c r="E9">
-        <v>1811.86391763078</v>
+        <v>27.864675445444</v>
       </c>
       <c r="F9">
-        <v>28.071775980171601</v>
-      </c>
-      <c r="G9">
-        <v>1906.5706937382699</v>
+        <v>2170.0813465910701</v>
       </c>
     </row>
   </sheetData>
@@ -1612,192 +1614,198 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D2505A-AD6D-894B-A683-7DBAD858FE35}">
-  <dimension ref="B1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1.0271941729226399</v>
+      </c>
       <c r="B2">
-        <v>1.0995479124191101</v>
+        <v>198.58789575853299</v>
       </c>
       <c r="C2">
-        <v>154.89318322843701</v>
+        <v>1.0264726598065601</v>
       </c>
       <c r="D2">
-        <v>0.95335519900718002</v>
+        <v>213.89428114961001</v>
       </c>
       <c r="E2">
-        <v>220.80489318322799</v>
+        <v>1.02502963357441</v>
       </c>
       <c r="F2">
-        <v>1.0003900363442899</v>
-      </c>
-      <c r="G2">
-        <v>251.80613420796001</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+        <v>244.50705193176501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1.9492879352699599</v>
+      </c>
       <c r="B3">
-        <v>3.0616080134739798</v>
+        <v>637.02736596175896</v>
       </c>
       <c r="C3">
-        <v>375.55181278255401</v>
+        <v>1.9940217484667799</v>
       </c>
       <c r="D3">
-        <v>2.0074816062405798</v>
+        <v>688.03147171496698</v>
       </c>
       <c r="E3">
-        <v>298.178352982891</v>
+        <v>1.9916167047465201</v>
       </c>
       <c r="F3">
-        <v>1.95796471943976</v>
-      </c>
-      <c r="G3">
-        <v>344.69683538693403</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+        <v>739.05275635189196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2.9752795863324799</v>
+      </c>
       <c r="B4">
-        <v>5.0281358035635098</v>
+        <v>871.34733984985598</v>
       </c>
       <c r="C4">
-        <v>456.67494016487899</v>
+        <v>3.0661902389582698</v>
       </c>
       <c r="D4">
-        <v>3.0092367697899101</v>
+        <v>942.742780574118</v>
       </c>
       <c r="E4">
-        <v>511.21797712968601</v>
+        <v>3.0608991427737</v>
       </c>
       <c r="F4">
-        <v>3.00613420796028</v>
-      </c>
-      <c r="G4">
-        <v>608.11763141565405</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1054.98960677535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4.99383278074591</v>
+      </c>
       <c r="B5">
-        <v>9.0118251928020499</v>
+        <v>1049.1831440792901</v>
       </c>
       <c r="C5">
-        <v>537.51883698253698</v>
+        <v>4.9459724107127503</v>
       </c>
       <c r="D5">
-        <v>4.9261235706054398</v>
+        <v>1064.5067083540901</v>
       </c>
       <c r="E5">
-        <v>642.73557308749196</v>
+        <v>5.0330349933861296</v>
       </c>
       <c r="F5">
-        <v>4.9710486658984099</v>
-      </c>
-      <c r="G5">
-        <v>739.62857902668202</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1217.5362044974299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>8.9972685574891305</v>
+      </c>
       <c r="B6">
-        <v>14.003350766775901</v>
+        <v>1119.1527374551199</v>
       </c>
       <c r="C6">
-        <v>641.47903554649395</v>
+        <v>8.9465221349916693</v>
       </c>
       <c r="D6">
-        <v>9.0038826345182095</v>
+        <v>1195.70184329422</v>
       </c>
       <c r="E6">
-        <v>785.58195195461303</v>
+        <v>8.9835598082836494</v>
       </c>
       <c r="F6">
-        <v>9.0478149100256999</v>
-      </c>
-      <c r="G6">
-        <v>913.48284726531301</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1409.9740598855799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>13.9838862070742</v>
+      </c>
       <c r="B7">
-        <v>21.012782554737999</v>
+        <v>1331.6211712562899</v>
       </c>
       <c r="C7">
-        <v>721.904086517152</v>
+        <v>13.9343423064369</v>
       </c>
       <c r="D7">
-        <v>13.944526194486301</v>
+        <v>1382.65963477693</v>
       </c>
       <c r="E7">
-        <v>978.69648080843797</v>
+        <v>13.8761402484066</v>
       </c>
       <c r="F7">
-        <v>13.9870933427887</v>
-      </c>
-      <c r="G7">
-        <v>1149.23322400496</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1617.3747229905</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>20.907766573328001</v>
+      </c>
       <c r="B8">
-        <v>28.0245722896906</v>
+        <v>1446.44483001494</v>
       </c>
       <c r="C8">
-        <v>728.68540023047603</v>
+        <v>20.8596656989228</v>
       </c>
       <c r="D8">
-        <v>21.002482049463701</v>
+        <v>1466.8705227534299</v>
       </c>
       <c r="E8">
-        <v>1043.6109387465599</v>
+        <v>20.991702599165102</v>
       </c>
       <c r="F8">
-        <v>20.997393848063101</v>
-      </c>
-      <c r="G8">
-        <v>1202.5263717755499</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1665.8019961862799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>27.8852794145436</v>
+      </c>
+      <c r="B9">
+        <v>1423.49384137018</v>
+      </c>
+      <c r="C9">
+        <v>27.881431344591199</v>
+      </c>
       <c r="D9">
-        <v>28.0625476464852</v>
+        <v>1505.1278967892599</v>
       </c>
       <c r="E9">
-        <v>1042.6336317702301</v>
+        <v>27.8734947003143</v>
       </c>
       <c r="F9">
-        <v>28.009555890435202</v>
-      </c>
-      <c r="G9">
-        <v>1197.67972697455</v>
+        <v>1673.4981360911099</v>
       </c>
     </row>
   </sheetData>
@@ -1806,202 +1814,199 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC66DA02-3F87-4240-B24F-E2BC4C497BD3}">
-  <dimension ref="B1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1.02568278475399</v>
+      </c>
       <c r="B2">
-        <v>0.98989898989898994</v>
+        <v>19.216132868401399</v>
       </c>
       <c r="C2">
-        <v>222.39227289732301</v>
+        <v>0.97951746518049698</v>
       </c>
       <c r="D2">
-        <v>0.94276094276094302</v>
+        <v>18.846471690887402</v>
       </c>
       <c r="E2">
-        <v>237.53528551508299</v>
+        <v>0.979968959748452</v>
       </c>
       <c r="F2">
-        <v>0.94276094276094302</v>
-      </c>
-      <c r="G2">
-        <v>288.04033602013402</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+        <v>19.339084514139401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2.04109406808699</v>
+      </c>
       <c r="B3">
-        <v>1.9326599326599301</v>
+        <v>27.102372362082502</v>
       </c>
       <c r="C3">
-        <v>409.43101044111103</v>
+        <v>1.9046298349222901</v>
       </c>
       <c r="D3">
-        <v>1.88552188552188</v>
+        <v>28.210146534174498</v>
       </c>
       <c r="E3">
-        <v>454.87705336190197</v>
+        <v>1.9073388023300299</v>
       </c>
       <c r="F3">
-        <v>2.0269360269360202</v>
-      </c>
-      <c r="G3">
-        <v>520.55912661973298</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+        <v>31.165823473686299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3.0079696853647202</v>
+      </c>
       <c r="B4">
-        <v>2.9696969696969702</v>
+        <v>32.032733356176799</v>
       </c>
       <c r="C4">
-        <v>515.67867224432803</v>
+        <v>3.0086469272166498</v>
       </c>
       <c r="D4">
-        <v>2.9225589225589199</v>
+        <v>32.771652591054703</v>
       </c>
       <c r="E4">
-        <v>591.42774546814906</v>
+        <v>3.0113558946243901</v>
       </c>
       <c r="F4">
-        <v>2.8282828282828198</v>
-      </c>
-      <c r="G4">
-        <v>641.91579090568996</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+        <v>35.7273295305665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5.0260375304859597</v>
+      </c>
       <c r="B5">
-        <v>4.9494949494949498</v>
+        <v>33.888900086670802</v>
       </c>
       <c r="C5">
-        <v>652.39941502567694</v>
+        <v>5.0264890250539098</v>
       </c>
       <c r="D5">
-        <v>4.9494949494949498</v>
+        <v>34.381512909922797</v>
       </c>
       <c r="E5">
-        <v>768.56103118729402</v>
+        <v>5.0280692560417597</v>
       </c>
       <c r="F5">
-        <v>4.9494949494949498</v>
-      </c>
-      <c r="G5">
-        <v>808.96507159133398</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+        <v>36.105657791304701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>8.9115997823151094</v>
+      </c>
       <c r="B6">
-        <v>9.0033670033669999</v>
+        <v>23.314856993126799</v>
       </c>
       <c r="C6">
-        <v>860.20133999932</v>
+        <v>8.9586680910245207</v>
       </c>
       <c r="D6">
-        <v>9.0033670033669999</v>
+        <v>24.669743817144699</v>
       </c>
       <c r="E6">
-        <v>1062.22154201952</v>
+        <v>9.0526918348013599</v>
       </c>
       <c r="F6">
-        <v>9.0033670033669999</v>
-      </c>
-      <c r="G6">
-        <v>1117.77709757507</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
-        <v>14</v>
+        <v>27.256364259367501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>13.905468324834199</v>
+      </c>
+      <c r="B7">
+        <v>21.982141777356698</v>
       </c>
       <c r="C7">
-        <v>977.26422473897196</v>
-      </c>
-      <c r="D7" s="1">
-        <v>14</v>
+        <v>13.9521980126176</v>
+      </c>
+      <c r="D7">
+        <v>22.9675689839356</v>
       </c>
       <c r="E7">
-        <v>1255.04200251675</v>
+        <v>14.046786124604401</v>
       </c>
       <c r="F7">
-        <v>14.094276094275999</v>
-      </c>
-      <c r="G7">
-        <v>1416.67516920042</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+        <v>26.169955455223398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>20.915372986918701</v>
+      </c>
       <c r="B8">
-        <v>21.023569023568999</v>
+        <v>20.288835587446801</v>
       </c>
       <c r="C8">
-        <v>1195.7028194401901</v>
+        <v>20.961312559208199</v>
       </c>
       <c r="D8">
-        <v>20.976430976430901</v>
+        <v>20.4121903533348</v>
       </c>
       <c r="E8">
-        <v>1407.81552902765</v>
+        <v>20.9662789994557</v>
       </c>
       <c r="F8">
-        <v>20.929292929292899</v>
-      </c>
-      <c r="G8">
-        <v>1559.32217800904</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+        <v>25.830931409106402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>27.881595549553499</v>
+      </c>
       <c r="B9">
-        <v>28.047138047137999</v>
+        <v>20.935238747908802</v>
       </c>
       <c r="C9">
-        <v>1191.9191919191901</v>
-      </c>
-      <c r="D9" s="1">
-        <v>28</v>
+        <v>27.882385665047401</v>
+      </c>
+      <c r="D9">
+        <v>21.7973111885997</v>
       </c>
       <c r="E9">
-        <v>1424.2339217086601</v>
+        <v>27.9776510188861</v>
       </c>
       <c r="F9">
-        <v>28.047138047137999</v>
-      </c>
-      <c r="G9">
-        <v>1580.8080808080799</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D10" s="1"/>
+        <v>25.738616894765499</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2009,197 +2014,197 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C58EA6-1773-8947-8443-8AABA3E63FDB}">
-  <dimension ref="B1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.88871447416324201</v>
+      </c>
       <c r="B2">
-        <v>0.88871447416324201</v>
+        <v>186.8359960473</v>
       </c>
       <c r="C2">
-        <v>186.8359960473</v>
+        <v>0.93835962950529805</v>
       </c>
       <c r="D2">
-        <v>0.93835962950529805</v>
+        <v>186.845452267365</v>
       </c>
       <c r="E2">
-        <v>186.845452267365</v>
+        <v>0.93663859745344002</v>
       </c>
       <c r="F2">
-        <v>0.93663859745344002</v>
-      </c>
-      <c r="G2">
         <v>256.17845778506899</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1.87579254944421</v>
+      </c>
       <c r="B3">
-        <v>1.87579254944421</v>
+        <v>421.69067758544901</v>
       </c>
       <c r="C3">
-        <v>421.69067758544901</v>
+        <v>1.9251729306244401</v>
       </c>
       <c r="D3">
-        <v>1.9251729306244401</v>
+        <v>432.366750039007</v>
       </c>
       <c r="E3">
-        <v>432.366750039007</v>
+        <v>2.0234041446612498</v>
       </c>
       <c r="F3">
-        <v>2.0234041446612498</v>
-      </c>
-      <c r="G3">
         <v>475.052127413108</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2.91609023125186</v>
+      </c>
       <c r="B4">
-        <v>2.91609023125186</v>
+        <v>512.55549619150702</v>
       </c>
       <c r="C4">
-        <v>512.55549619150702</v>
+        <v>2.9650734511893502</v>
       </c>
       <c r="D4">
-        <v>2.9650734511893502</v>
+        <v>539.23149299530496</v>
       </c>
       <c r="E4">
-        <v>539.23149299530496</v>
+        <v>2.9637495803802301</v>
       </c>
       <c r="F4">
-        <v>2.9637495803802301</v>
-      </c>
-      <c r="G4">
         <v>592.56457416276896</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4.9986714010808404</v>
+      </c>
       <c r="B5">
-        <v>4.9986714010808404</v>
+        <v>614.28551165242698</v>
       </c>
       <c r="C5">
-        <v>614.28551165242698</v>
+        <v>4.8992487033158199</v>
       </c>
       <c r="D5">
-        <v>4.8992487033158199</v>
+        <v>619.59990732904305</v>
       </c>
       <c r="E5">
-        <v>619.59990732904305</v>
+        <v>4.9935083049252702</v>
       </c>
       <c r="F5">
-        <v>4.9935083049252702</v>
-      </c>
-      <c r="G5">
         <v>822.28452820554003</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>8.8684781632238092</v>
+      </c>
       <c r="B6">
-        <v>8.8684781632238092</v>
+        <v>716.35595103569199</v>
       </c>
       <c r="C6">
-        <v>716.35595103569199</v>
+        <v>8.9651207322896802</v>
       </c>
       <c r="D6">
-        <v>8.9651207322896802</v>
+        <v>823.04102581075199</v>
       </c>
       <c r="E6">
-        <v>823.04102581075199</v>
+        <v>8.9583689911631605</v>
       </c>
       <c r="F6">
-        <v>8.9583689911631605</v>
-      </c>
-      <c r="G6">
         <v>1095.0397397648201</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>13.928444782766899</v>
+      </c>
       <c r="B7">
-        <v>13.928444782766899</v>
+        <v>871.986420867986</v>
       </c>
       <c r="C7">
-        <v>871.986420867986</v>
+        <v>13.9767660672999</v>
       </c>
       <c r="D7">
-        <v>13.9767660672999</v>
+        <v>925.328958255516</v>
       </c>
       <c r="E7">
-        <v>925.328958255516</v>
+        <v>13.9657779395842</v>
       </c>
       <c r="F7">
-        <v>13.9657779395842</v>
-      </c>
-      <c r="G7">
         <v>1367.9935319454701</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>21.073640313757299</v>
+      </c>
       <c r="B8">
-        <v>21.073640313757299</v>
+        <v>1022.68074382627</v>
       </c>
       <c r="C8">
-        <v>1022.68074382627</v>
+        <v>21.071919281705501</v>
       </c>
       <c r="D8">
-        <v>21.071919281705501</v>
+        <v>1092.0137493439699</v>
       </c>
       <c r="E8">
-        <v>1092.0137493439699</v>
+        <v>20.963759036600301</v>
       </c>
       <c r="F8">
-        <v>20.963759036600301</v>
-      </c>
-      <c r="G8">
         <v>1449.3264807258499</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>28.023829674564102</v>
+      </c>
       <c r="B9">
-        <v>28.023829674564102</v>
+        <v>1029.33792275213</v>
       </c>
       <c r="C9">
-        <v>1029.33792275213</v>
+        <v>28.021579094188599</v>
       </c>
       <c r="D9">
-        <v>28.021579094188599</v>
+        <v>1120.00416073682</v>
       </c>
       <c r="E9">
-        <v>1120.00416073682</v>
+        <v>28.162571335360099</v>
       </c>
       <c r="F9">
-        <v>28.162571335360099</v>
-      </c>
-      <c r="G9">
         <v>1440.0310164018099</v>
       </c>
     </row>
@@ -2209,198 +2214,192 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383A4DE1-B442-8A49-84E3-2013DD5BD8F2}">
-  <dimension ref="B1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1.0995479124191101</v>
+      </c>
       <c r="B2">
-        <v>0.96263858093126398</v>
+        <v>154.89318322843701</v>
       </c>
       <c r="C2">
-        <v>15.609756097560901</v>
+        <v>0.95335519900718002</v>
       </c>
       <c r="D2">
-        <v>1.0130820399113001</v>
+        <v>220.80489318322799</v>
       </c>
       <c r="E2">
-        <v>17.0731707317073</v>
+        <v>1.0003900363442899</v>
       </c>
       <c r="F2">
-        <v>1.01940133037693</v>
-      </c>
-      <c r="G2">
-        <v>18.9268292682926</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+        <v>251.80613420796001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3.0616080134739798</v>
+      </c>
       <c r="B3">
-        <v>1.9919068736141901</v>
+        <v>375.55181278255401</v>
       </c>
       <c r="C3">
-        <v>24.195121951219502</v>
+        <v>2.0074816062405798</v>
       </c>
       <c r="D3">
-        <v>1.9985587583148501</v>
+        <v>298.178352982891</v>
       </c>
       <c r="E3">
-        <v>26.146341463414601</v>
+        <v>1.95796471943976</v>
       </c>
       <c r="F3">
-        <v>1.9647450110864699</v>
-      </c>
-      <c r="G3">
-        <v>29.560975609756099</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+        <v>344.69683538693403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5.0281358035635098</v>
+      </c>
       <c r="B4">
-        <v>3.0470066518846899</v>
+        <v>456.67494016487899</v>
       </c>
       <c r="C4">
-        <v>27.024390243902399</v>
+        <v>3.0092367697899101</v>
       </c>
       <c r="D4">
-        <v>3.05399113082039</v>
+        <v>511.21797712968601</v>
       </c>
       <c r="E4">
-        <v>29.0731707317073</v>
+        <v>3.00613420796028</v>
       </c>
       <c r="F4">
-        <v>3.0633037694013199</v>
-      </c>
-      <c r="G4">
-        <v>31.804878048780399</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+        <v>608.11763141565405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>9.0118251928020499</v>
+      </c>
       <c r="B5">
-        <v>5.0035476718403498</v>
+        <v>537.51883698253698</v>
       </c>
       <c r="C5">
-        <v>27.609756097560901</v>
+        <v>4.9261235706054398</v>
       </c>
       <c r="D5">
-        <v>5.0546563192904603</v>
+        <v>642.73557308749196</v>
       </c>
       <c r="E5">
-        <v>29.268292682926798</v>
+        <v>4.9710486658984099</v>
       </c>
       <c r="F5">
-        <v>4.9740576496674</v>
-      </c>
-      <c r="G5">
-        <v>32.292682926829201</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+        <v>739.62857902668202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>14.003350766775901</v>
+      </c>
       <c r="B6">
-        <v>8.9885809312638507</v>
+        <v>641.47903554649395</v>
       </c>
       <c r="C6">
-        <v>23.219512195121901</v>
+        <v>9.0038826345182095</v>
       </c>
       <c r="D6">
-        <v>9.0350332594234999</v>
+        <v>785.58195195461303</v>
       </c>
       <c r="E6">
-        <v>23.512195121951201</v>
+        <v>9.0478149100256999</v>
       </c>
       <c r="F6">
-        <v>9.0423503325942303</v>
-      </c>
-      <c r="G6">
-        <v>25.658536585365798</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+        <v>913.48284726531301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>21.012782554737999</v>
+      </c>
       <c r="B7">
-        <v>14.010421286031001</v>
+        <v>721.904086517152</v>
       </c>
       <c r="C7">
-        <v>16.292682926829201</v>
+        <v>13.944526194486301</v>
       </c>
       <c r="D7">
-        <v>14.016407982261599</v>
+        <v>978.69648080843797</v>
       </c>
       <c r="E7">
-        <v>18.048780487804802</v>
+        <v>13.9870933427887</v>
       </c>
       <c r="F7">
-        <v>14.0327050997782</v>
-      </c>
-      <c r="G7">
-        <v>22.829268292682901</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1149.23322400496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>28.0245722896906</v>
+      </c>
       <c r="B8">
-        <v>21.056541019955599</v>
+        <v>728.68540023047603</v>
       </c>
       <c r="C8">
-        <v>16.487804878048699</v>
+        <v>21.002482049463701</v>
       </c>
       <c r="D8">
-        <v>21.060864745010999</v>
+        <v>1043.6109387465599</v>
       </c>
       <c r="E8">
-        <v>17.756097560975601</v>
+        <v>20.997393848063101</v>
       </c>
       <c r="F8">
-        <v>21.030044345897998</v>
-      </c>
-      <c r="G8">
-        <v>22.048780487804802</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>28.010753880266002</v>
-      </c>
+        <v>1202.5263717755499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9">
-        <v>16.390243902439</v>
+        <v>28.0625476464852</v>
       </c>
       <c r="D9">
-        <v>28.0144124168514</v>
+        <v>1042.6336317702301</v>
       </c>
       <c r="E9">
-        <v>17.4634146341463</v>
+        <v>28.009555890435202</v>
       </c>
       <c r="F9">
-        <v>27.941130820399099</v>
-      </c>
-      <c r="G9">
-        <v>22.634146341463399</v>
+        <v>1197.67972697455</v>
       </c>
     </row>
   </sheetData>
@@ -2409,198 +2408,198 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8B4D7F-FA66-0F44-B912-2B2EB758BBEE}">
-  <dimension ref="B1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1.0632485209946601</v>
+      </c>
       <c r="B2">
-        <v>1.02568278475399</v>
+        <v>69.387996408702406</v>
       </c>
       <c r="C2">
-        <v>19.216132868401399</v>
+        <v>0.97290494284385898</v>
       </c>
       <c r="D2">
-        <v>0.97951746518049698</v>
+        <v>74.918233851185605</v>
       </c>
       <c r="E2">
-        <v>18.846471690887402</v>
+        <v>0.92879932021868505</v>
       </c>
       <c r="F2">
-        <v>0.979968959748452</v>
-      </c>
-      <c r="G2">
-        <v>19.339084514139401</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+        <v>83.5187100187581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2.0266140798101699</v>
+      </c>
       <c r="B3">
-        <v>2.04109406808699</v>
+        <v>92.094135282894797</v>
       </c>
       <c r="C3">
-        <v>27.102372362082502</v>
+        <v>2.0294197809949801</v>
       </c>
       <c r="D3">
-        <v>1.9046298349222901</v>
+        <v>107.45033908902801</v>
       </c>
       <c r="E3">
-        <v>28.210146534174498</v>
+        <v>2.0757699645679999</v>
       </c>
       <c r="F3">
-        <v>1.9073388023300299</v>
-      </c>
-      <c r="G3">
-        <v>31.165823473686299</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+        <v>111.134825966363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3.0840267423404302</v>
+      </c>
       <c r="B4">
-        <v>3.0079696853647202</v>
+        <v>129.540225738701</v>
       </c>
       <c r="C4">
-        <v>32.032733356176799</v>
+        <v>2.94733298061661</v>
       </c>
       <c r="D4">
-        <v>3.0086469272166498</v>
+        <v>131.38597630384899</v>
       </c>
       <c r="E4">
-        <v>32.771652591054703</v>
+        <v>2.9950299007583401</v>
       </c>
       <c r="F4">
-        <v>3.0113558946243901</v>
-      </c>
-      <c r="G4">
-        <v>35.7273295305665</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+        <v>142.44144100812801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5.0085132990236101</v>
+      </c>
       <c r="B5">
-        <v>5.0260375304859597</v>
+        <v>162.66754044217799</v>
       </c>
       <c r="C5">
-        <v>33.888900086670802</v>
+        <v>5.0105334038766802</v>
       </c>
       <c r="D5">
-        <v>5.0264890250539098</v>
+        <v>173.72400718259499</v>
       </c>
       <c r="E5">
-        <v>34.381512909922797</v>
+        <v>5.0095233514501496</v>
       </c>
       <c r="F5">
-        <v>5.0280692560417597</v>
-      </c>
-      <c r="G5">
-        <v>36.105657791304701</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+        <v>168.19577381238599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>9.0312154297532601</v>
+      </c>
       <c r="B6">
-        <v>8.9115997823151094</v>
+        <v>179.77830952495401</v>
       </c>
       <c r="C6">
-        <v>23.314856993126799</v>
+        <v>8.9413207637920191</v>
       </c>
       <c r="D6">
-        <v>8.9586680910245207</v>
+        <v>187.765539576419</v>
       </c>
       <c r="E6">
-        <v>24.669743817144699</v>
+        <v>9.1229057444727708</v>
       </c>
       <c r="F6">
-        <v>9.0526918348013599</v>
-      </c>
-      <c r="G6">
-        <v>27.256364259367501</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+        <v>181.619049909415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>14.092475911051199</v>
+      </c>
       <c r="B7">
-        <v>13.905468324834199</v>
+        <v>131.141479486316</v>
       </c>
       <c r="C7">
-        <v>21.982141777356698</v>
+        <v>13.999551087810399</v>
       </c>
       <c r="D7">
-        <v>13.9521980126176</v>
+        <v>122.544009427156</v>
       </c>
       <c r="E7">
-        <v>22.9675689839356</v>
+        <v>14.1369182178186</v>
       </c>
       <c r="F7">
-        <v>14.046786124604401</v>
-      </c>
-      <c r="G7">
-        <v>26.169955455223398</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+        <v>124.38374777547899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>20.9861959501707</v>
+      </c>
       <c r="B8">
-        <v>20.915372986918701</v>
+        <v>111.94847930995699</v>
       </c>
       <c r="C8">
-        <v>20.288835587446801</v>
+        <v>21.0326583617911</v>
       </c>
       <c r="D8">
-        <v>20.961312559208199</v>
+        <v>116.247214339537</v>
       </c>
       <c r="E8">
-        <v>20.4121903533348</v>
+        <v>21.0796819136485</v>
       </c>
       <c r="F8">
-        <v>20.9662789994557</v>
-      </c>
-      <c r="G8">
-        <v>25.830931409106402</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+        <v>123.617190130344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>28.065316723582299</v>
+      </c>
       <c r="B9">
-        <v>27.881595549553499</v>
+        <v>107.493426642938</v>
       </c>
       <c r="C9">
-        <v>20.935238747908802</v>
+        <v>28.0210988729097</v>
       </c>
       <c r="D9">
-        <v>27.882385665047401</v>
+        <v>115.47965465826501</v>
       </c>
       <c r="E9">
-        <v>21.7973111885997</v>
+        <v>28.0224456094784</v>
       </c>
       <c r="F9">
-        <v>27.9776510188861</v>
-      </c>
-      <c r="G9">
-        <v>25.738616894765499</v>
+        <v>122.850632485209</v>
       </c>
     </row>
   </sheetData>
@@ -2609,198 +2608,198 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4D744F-E8BB-B94D-9D16-D83E18A404AA}">
-  <dimension ref="B1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1.01585106741762</v>
+      </c>
       <c r="B2">
-        <v>1.0936707192514199</v>
+        <v>22.462311557788901</v>
       </c>
       <c r="C2">
-        <v>22.122911930414102</v>
+        <v>0.96721864355333698</v>
       </c>
       <c r="D2">
-        <v>1.0936707192514199</v>
+        <v>24.572864321608002</v>
       </c>
       <c r="E2">
-        <v>22.122911930414102</v>
+        <v>0.87101615459849402</v>
       </c>
       <c r="F2">
-        <v>1.0484662778821101</v>
-      </c>
-      <c r="G2">
-        <v>22.568696253830101</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+        <v>27.437185929648201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1.9410475194765699</v>
+      </c>
       <c r="B3">
-        <v>2.01067510131461</v>
+        <v>40.854271356783897</v>
       </c>
       <c r="C3">
-        <v>32.365572798260303</v>
+        <v>1.9393949613840999</v>
       </c>
       <c r="D3">
-        <v>2.1135382689202902</v>
+        <v>42.964824120602998</v>
       </c>
       <c r="E3">
-        <v>35.483839082731997</v>
+        <v>1.93408316751542</v>
       </c>
       <c r="F3">
-        <v>2.0821719218477099</v>
-      </c>
-      <c r="G3">
-        <v>40.384995552041097</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+        <v>49.748743718592898</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3.0170989174058098</v>
+      </c>
       <c r="B4">
-        <v>3.0462258245197802</v>
+        <v>46.582914572864297</v>
       </c>
       <c r="C4">
-        <v>35.775921715923602</v>
+        <v>2.9668139354490499</v>
       </c>
       <c r="D4">
-        <v>3.0605251886264</v>
+        <v>50.804020100502498</v>
       </c>
       <c r="E4">
-        <v>40.3798062666798</v>
+        <v>2.8710836059492002</v>
       </c>
       <c r="F4">
-        <v>3.1246416922012399</v>
-      </c>
-      <c r="G4">
-        <v>46.023030542650901</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+        <v>53.065326633165803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4.8940507908670803</v>
+      </c>
       <c r="B5">
-        <v>5.1943593291818999</v>
+        <v>49.447236180904497</v>
       </c>
       <c r="C5">
-        <v>37.398191163388297</v>
+        <v>4.93902397895517</v>
       </c>
       <c r="D5">
-        <v>5.1597640934400797</v>
+        <v>52.010050251256203</v>
       </c>
       <c r="E5">
-        <v>41.259760798655698</v>
+        <v>4.9363090620889603</v>
       </c>
       <c r="F5">
-        <v>5.2690850383842296</v>
-      </c>
-      <c r="G5">
-        <v>46.457200751210799</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+        <v>55.477386934673298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>8.9437624363427801</v>
+      </c>
       <c r="B6">
-        <v>9.0893216039010198</v>
+        <v>37.386934673366802</v>
       </c>
       <c r="C6">
-        <v>31.4369378274192</v>
+        <v>8.9876732656571399</v>
       </c>
       <c r="D6">
-        <v>9.1396000131791304</v>
+        <v>41.306532663316503</v>
       </c>
       <c r="E6">
-        <v>32.6247899574972</v>
+        <v>8.9862567872921595</v>
       </c>
       <c r="F6">
-        <v>9.1520542980461901</v>
-      </c>
-      <c r="G6">
-        <v>36.634624888801</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+        <v>43.115577889447202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>13.971080233381601</v>
+      </c>
       <c r="B7">
-        <v>14.112549833613301</v>
+        <v>36.7839195979899</v>
       </c>
       <c r="C7">
-        <v>28.7370267865968</v>
+        <v>13.9241003676098</v>
       </c>
       <c r="D7">
-        <v>14.1171625317122</v>
+        <v>36.7839195979899</v>
       </c>
       <c r="E7">
-        <v>30.222150835227801</v>
+        <v>13.9701359144716</v>
       </c>
       <c r="F7">
-        <v>14.0894863431188</v>
-      </c>
-      <c r="G7">
-        <v>36.311406543441699</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+        <v>37.989949748743697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>20.974031229975299</v>
+      </c>
       <c r="B8">
-        <v>21.144608085400801</v>
+        <v>33.015075376884397</v>
       </c>
       <c r="C8">
-        <v>27.808638924582301</v>
+        <v>21.0198306971097</v>
       </c>
       <c r="D8">
-        <v>21.101709993080899</v>
+        <v>34.522613065326603</v>
       </c>
       <c r="E8">
-        <v>28.9969852723139</v>
+        <v>20.969899834744101</v>
       </c>
       <c r="F8">
-        <v>21.166287766465601</v>
-      </c>
-      <c r="G8">
-        <v>34.788721953148098</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+        <v>38.291457286432099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>28.0219554146571</v>
+      </c>
       <c r="B9">
-        <v>28.180356495667301</v>
+        <v>31.8090452261306</v>
       </c>
       <c r="C9">
-        <v>28.068350301472702</v>
+        <v>27.972732791474101</v>
       </c>
       <c r="D9">
-        <v>28.136997133537601</v>
+        <v>34.6733668341708</v>
       </c>
       <c r="E9">
-        <v>29.108184244341199</v>
+        <v>27.969781794880401</v>
       </c>
       <c r="F9">
-        <v>28.2015749069223</v>
-      </c>
-      <c r="G9">
-        <v>34.899920925175401</v>
+        <v>38.442211055276303</v>
       </c>
     </row>
   </sheetData>
@@ -2809,198 +2808,198 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E944CC-0D99-3346-A034-32C93E532955}">
-  <dimension ref="B1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1.0481194455526199</v>
+      </c>
       <c r="B2">
-        <v>1.01585106741762</v>
+        <v>340.69399292086399</v>
       </c>
       <c r="C2">
-        <v>22.462311557788901</v>
+        <v>1.09517786963865</v>
       </c>
       <c r="D2">
-        <v>0.96721864355333698</v>
+        <v>340.68338270619802</v>
       </c>
       <c r="E2">
-        <v>24.572864321608002</v>
+        <v>1.0500207960207399</v>
       </c>
       <c r="F2">
-        <v>0.87101615459849402</v>
-      </c>
-      <c r="G2">
-        <v>27.437185929648201</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+        <v>391.19861473037298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1.95981699501744</v>
+      </c>
       <c r="B3">
-        <v>1.9410475194765699</v>
+        <v>807.66015058016603</v>
       </c>
       <c r="C3">
-        <v>40.854271356783897</v>
+        <v>1.9605300014429801</v>
       </c>
       <c r="D3">
-        <v>1.9393949613840999</v>
+        <v>826.59938375873196</v>
       </c>
       <c r="E3">
-        <v>42.964824120602998</v>
+        <v>2.0140054833589298</v>
       </c>
       <c r="F3">
-        <v>1.93408316751542</v>
-      </c>
-      <c r="G3">
-        <v>49.748743718592898</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+        <v>997.04187215115701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3.0462011187410298</v>
+      </c>
       <c r="B4">
-        <v>3.0170989174058098</v>
+        <v>914.73843698805695</v>
       </c>
       <c r="C4">
-        <v>46.582914572864297</v>
+        <v>3.04857780682618</v>
       </c>
       <c r="D4">
-        <v>2.9668139354490499</v>
+        <v>977.86921424994205</v>
       </c>
       <c r="E4">
-        <v>50.804020100502498</v>
+        <v>3.0568962151242198</v>
       </c>
       <c r="F4">
-        <v>2.8710836059492002</v>
-      </c>
-      <c r="G4">
-        <v>53.065326633165803</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1198.82693466654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5.03049800103555</v>
+      </c>
       <c r="B5">
-        <v>4.8940507908670803</v>
+        <v>1122.62437293631</v>
       </c>
       <c r="C5">
-        <v>49.447236180904497</v>
+        <v>4.9867669402687298</v>
       </c>
       <c r="D5">
-        <v>4.93902397895517</v>
+        <v>1211.0180713176101</v>
       </c>
       <c r="E5">
-        <v>52.010050251256203</v>
+        <v>5.0915788848239902</v>
       </c>
       <c r="F5">
-        <v>4.9363090620889603</v>
-      </c>
-      <c r="G5">
-        <v>55.477386934673298</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1495.0853485667701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>9.0356927621359606</v>
+      </c>
       <c r="B6">
-        <v>8.9437624363427801</v>
+        <v>1260.61021466586</v>
       </c>
       <c r="C6">
-        <v>37.386934673366802</v>
+        <v>9.0387824566466595</v>
       </c>
       <c r="D6">
-        <v>8.9876732656571399</v>
+        <v>1342.68022510631</v>
       </c>
       <c r="E6">
-        <v>41.306532663316503</v>
+        <v>9.0943969578392494</v>
       </c>
       <c r="F6">
-        <v>8.9862567872921595</v>
-      </c>
-      <c r="G6">
-        <v>43.115577889447202</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1569.9404130344301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>14.0319664547453</v>
+      </c>
       <c r="B7">
-        <v>13.971080233381601</v>
+        <v>1474.13017460169</v>
       </c>
       <c r="C7">
-        <v>36.7839195979899</v>
+        <v>14.0830652485761</v>
       </c>
       <c r="D7">
-        <v>13.9241003676098</v>
+        <v>1581.44188573223</v>
       </c>
       <c r="E7">
-        <v>36.7839195979899</v>
+        <v>14.090432981639999</v>
       </c>
       <c r="F7">
-        <v>13.9701359144716</v>
-      </c>
-      <c r="G7">
-        <v>37.989949748743697</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1777.1472952440699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>21.052940727096701</v>
+      </c>
       <c r="B8">
-        <v>20.974031229975299</v>
+        <v>1718.7592839378301</v>
       </c>
       <c r="C8">
-        <v>33.015075376884397</v>
+        <v>21.149671932162502</v>
       </c>
       <c r="D8">
-        <v>21.0198306971097</v>
+        <v>1788.18191849657</v>
       </c>
       <c r="E8">
-        <v>34.522613065326603</v>
+        <v>21.012537029649099</v>
       </c>
       <c r="F8">
-        <v>20.969899834744101</v>
-      </c>
-      <c r="G8">
-        <v>38.291457286432099</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1895.5360704857701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>28.111704340002198</v>
+      </c>
       <c r="B9">
-        <v>28.0219554146571</v>
+        <v>1717.1677517379501</v>
       </c>
       <c r="C9">
-        <v>31.8090452261306</v>
+        <v>28.115269372129902</v>
       </c>
       <c r="D9">
-        <v>27.972732791474101</v>
+        <v>1811.86391763078</v>
       </c>
       <c r="E9">
-        <v>34.6733668341708</v>
+        <v>28.071775980171601</v>
       </c>
       <c r="F9">
-        <v>27.969781794880401</v>
-      </c>
-      <c r="G9">
-        <v>38.442211055276303</v>
+        <v>1906.5706937382699</v>
       </c>
     </row>
   </sheetData>
